--- a/data/pca/factorExposure/factorExposure_2014-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002651278803412899</v>
+        <v>0.008880874558795571</v>
       </c>
       <c r="C2">
-        <v>0.07916724581830915</v>
+        <v>-0.07375914795375715</v>
       </c>
       <c r="D2">
-        <v>-0.1496475990752181</v>
+        <v>0.003685417258057413</v>
       </c>
       <c r="E2">
-        <v>-0.142546366240957</v>
+        <v>0.1745463321023201</v>
       </c>
       <c r="F2">
-        <v>-0.1686555493725576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04416779360579939</v>
+      </c>
+      <c r="G2">
+        <v>0.05986832982220035</v>
+      </c>
+      <c r="H2">
+        <v>0.06786179813000735</v>
+      </c>
+      <c r="I2">
+        <v>0.183688722415617</v>
+      </c>
+      <c r="J2">
+        <v>0.1616926584823349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.02495648367547937</v>
+        <v>0.01580771384332225</v>
       </c>
       <c r="C4">
-        <v>0.1513670592575473</v>
+        <v>-0.1517027294641931</v>
       </c>
       <c r="D4">
-        <v>-0.06155398477548034</v>
+        <v>-0.03037533445302089</v>
       </c>
       <c r="E4">
-        <v>-0.09155842245129774</v>
+        <v>0.0977183403276162</v>
       </c>
       <c r="F4">
-        <v>0.03787652377758898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0583688013363276</v>
+      </c>
+      <c r="G4">
+        <v>0.003236593516943568</v>
+      </c>
+      <c r="H4">
+        <v>0.1133463327589017</v>
+      </c>
+      <c r="I4">
+        <v>0.03574396852903038</v>
+      </c>
+      <c r="J4">
+        <v>0.1269935229241712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01726762528903259</v>
+        <v>0.0329534181079127</v>
       </c>
       <c r="C6">
-        <v>0.07047388314401315</v>
+        <v>-0.07242471466928796</v>
       </c>
       <c r="D6">
-        <v>-0.06092070349705987</v>
+        <v>-0.009098047807830635</v>
       </c>
       <c r="E6">
-        <v>-0.09680773453874655</v>
+        <v>0.1086350442998581</v>
       </c>
       <c r="F6">
-        <v>0.01642219269776106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03289798632400711</v>
+      </c>
+      <c r="G6">
+        <v>-0.04625879385091587</v>
+      </c>
+      <c r="H6">
+        <v>0.03355206946276808</v>
+      </c>
+      <c r="I6">
+        <v>0.0745554931757359</v>
+      </c>
+      <c r="J6">
+        <v>-0.009923278344984906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01659713462753076</v>
+        <v>0.007590572109875092</v>
       </c>
       <c r="C7">
-        <v>0.05235482269033557</v>
+        <v>-0.06723475217492317</v>
       </c>
       <c r="D7">
-        <v>-0.02976700474399066</v>
+        <v>-0.005902940309242484</v>
       </c>
       <c r="E7">
-        <v>-0.06280510509559835</v>
+        <v>0.04790300941037023</v>
       </c>
       <c r="F7">
-        <v>0.008712864532771819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01778461956717612</v>
+      </c>
+      <c r="G7">
+        <v>-0.06673625325050384</v>
+      </c>
+      <c r="H7">
+        <v>0.08288162994417449</v>
+      </c>
+      <c r="I7">
+        <v>0.01190875376305661</v>
+      </c>
+      <c r="J7">
+        <v>0.03073016030906147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01517506904820617</v>
+        <v>-0.009531617356957707</v>
       </c>
       <c r="C8">
-        <v>0.07922486143249977</v>
+        <v>-0.07413647809203749</v>
       </c>
       <c r="D8">
-        <v>-0.05549292159650392</v>
+        <v>-0.03009899326772252</v>
       </c>
       <c r="E8">
-        <v>-0.1268482234896965</v>
+        <v>0.08888648226213508</v>
       </c>
       <c r="F8">
-        <v>-0.07464620890169087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02391555108144454</v>
+      </c>
+      <c r="G8">
+        <v>0.05420665052842474</v>
+      </c>
+      <c r="H8">
+        <v>0.0330874456668739</v>
+      </c>
+      <c r="I8">
+        <v>0.006116950669060094</v>
+      </c>
+      <c r="J8">
+        <v>-0.001397124397043608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.01126140547007447</v>
+        <v>0.008909383976103703</v>
       </c>
       <c r="C9">
-        <v>0.1288734899733951</v>
+        <v>-0.117431027214797</v>
       </c>
       <c r="D9">
-        <v>-0.04030329879529895</v>
+        <v>-0.0221380495474501</v>
       </c>
       <c r="E9">
-        <v>-0.06824259327804723</v>
+        <v>0.0580762507239414</v>
       </c>
       <c r="F9">
-        <v>0.0313625775069349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.007825221475201568</v>
+      </c>
+      <c r="G9">
+        <v>-0.006147741006391945</v>
+      </c>
+      <c r="H9">
+        <v>0.1028650418527638</v>
+      </c>
+      <c r="I9">
+        <v>0.02624310773305437</v>
+      </c>
+      <c r="J9">
+        <v>0.05131618303740966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2665862827410506</v>
+        <v>0.2523285395508043</v>
       </c>
       <c r="C10">
-        <v>-0.09283784390504561</v>
+        <v>0.0847885235915941</v>
       </c>
       <c r="D10">
-        <v>-0.02530175488275087</v>
+        <v>-0.004152596361888692</v>
       </c>
       <c r="E10">
-        <v>0.01673063248929831</v>
+        <v>0.01756533701375276</v>
       </c>
       <c r="F10">
-        <v>-0.009403554316634987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01106315113082895</v>
+      </c>
+      <c r="G10">
+        <v>-0.008803452350511229</v>
+      </c>
+      <c r="H10">
+        <v>0.02667093917278687</v>
+      </c>
+      <c r="I10">
+        <v>-0.1778001978687992</v>
+      </c>
+      <c r="J10">
+        <v>-0.04330866583966664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.005672567446703347</v>
+        <v>0.01148144212849526</v>
       </c>
       <c r="C11">
-        <v>0.06373216435391291</v>
+        <v>-0.08031782106999147</v>
       </c>
       <c r="D11">
-        <v>-0.01661976340732005</v>
+        <v>-0.02039828119247358</v>
       </c>
       <c r="E11">
-        <v>-0.03814263038469808</v>
+        <v>0.0183117012478864</v>
       </c>
       <c r="F11">
-        <v>0.06967031235008085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.008273486301872322</v>
+      </c>
+      <c r="G11">
+        <v>-0.03389680206765078</v>
+      </c>
+      <c r="H11">
+        <v>0.02809384713890119</v>
+      </c>
+      <c r="I11">
+        <v>-0.021977011611761</v>
+      </c>
+      <c r="J11">
+        <v>-0.0265917398948291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.005293057450322497</v>
+        <v>0.01239611572865158</v>
       </c>
       <c r="C12">
-        <v>0.06014163460982338</v>
+        <v>-0.06280746917856964</v>
       </c>
       <c r="D12">
-        <v>-0.01177804950357412</v>
+        <v>-0.009098067021714722</v>
       </c>
       <c r="E12">
-        <v>-0.02881893190193332</v>
+        <v>0.01659258551521518</v>
       </c>
       <c r="F12">
-        <v>0.05573283873172916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02174814044485324</v>
+      </c>
+      <c r="G12">
+        <v>-0.03710747489124495</v>
+      </c>
+      <c r="H12">
+        <v>0.02976848642088253</v>
+      </c>
+      <c r="I12">
+        <v>-0.01548420698653663</v>
+      </c>
+      <c r="J12">
+        <v>-0.004882306917490245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.005035082924893087</v>
+        <v>0.0004079833773451994</v>
       </c>
       <c r="C13">
-        <v>0.0920532291459815</v>
+        <v>-0.1107043295745548</v>
       </c>
       <c r="D13">
-        <v>-0.06915326278694751</v>
+        <v>-0.004091448423382346</v>
       </c>
       <c r="E13">
-        <v>-0.1270657179263047</v>
+        <v>0.1520724881515723</v>
       </c>
       <c r="F13">
-        <v>0.1243415393703386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1057916046424349</v>
+      </c>
+      <c r="G13">
+        <v>-0.08752782823362047</v>
+      </c>
+      <c r="H13">
+        <v>0.07137376216385925</v>
+      </c>
+      <c r="I13">
+        <v>-0.1919470260990803</v>
+      </c>
+      <c r="J13">
+        <v>0.01094281666612517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0004587782094749403</v>
+        <v>0.01119873119900188</v>
       </c>
       <c r="C14">
-        <v>0.05855475651912923</v>
+        <v>-0.07645844823024781</v>
       </c>
       <c r="D14">
-        <v>-0.03676048315179822</v>
+        <v>-0.02160061865842132</v>
       </c>
       <c r="E14">
-        <v>-0.04979149529282934</v>
+        <v>0.08121949031791169</v>
       </c>
       <c r="F14">
-        <v>0.03560563349568248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03888191325984095</v>
+      </c>
+      <c r="G14">
+        <v>-0.1023570454552938</v>
+      </c>
+      <c r="H14">
+        <v>0.1795428856939397</v>
+      </c>
+      <c r="I14">
+        <v>-0.02122471917735615</v>
+      </c>
+      <c r="J14">
+        <v>-0.1589931828832195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0006733923395451783</v>
+        <v>-0.001292887169525115</v>
       </c>
       <c r="C15">
-        <v>0.07369433372634343</v>
+        <v>-0.07273113997932749</v>
       </c>
       <c r="D15">
-        <v>-0.04800058381029114</v>
+        <v>-0.01326444329701235</v>
       </c>
       <c r="E15">
-        <v>-0.09838117101814628</v>
+        <v>0.06476504571559669</v>
       </c>
       <c r="F15">
-        <v>0.02448703749576318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.004043661001594403</v>
+      </c>
+      <c r="G15">
+        <v>-0.04097376131577064</v>
+      </c>
+      <c r="H15">
+        <v>0.06031929312490527</v>
+      </c>
+      <c r="I15">
+        <v>-0.004759673410478366</v>
+      </c>
+      <c r="J15">
+        <v>-0.0557683211759049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.009341104874104868</v>
+        <v>0.01188979206853479</v>
       </c>
       <c r="C16">
-        <v>0.05882574622760156</v>
+        <v>-0.06679775228033742</v>
       </c>
       <c r="D16">
-        <v>-0.01714165797509648</v>
+        <v>-0.01005744715252764</v>
       </c>
       <c r="E16">
-        <v>-0.02551054569731265</v>
+        <v>0.01111801268537897</v>
       </c>
       <c r="F16">
-        <v>0.0575891844109629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.00324377166211788</v>
+      </c>
+      <c r="G16">
+        <v>-0.03278526265830078</v>
+      </c>
+      <c r="H16">
+        <v>0.02743603454165702</v>
+      </c>
+      <c r="I16">
+        <v>-0.01119584280612074</v>
+      </c>
+      <c r="J16">
+        <v>-0.00548439133953482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.004198317888959574</v>
+        <v>0.007274191744118476</v>
       </c>
       <c r="C20">
-        <v>0.07191935066217331</v>
+        <v>-0.08515274201331502</v>
       </c>
       <c r="D20">
-        <v>-0.04714915869747237</v>
+        <v>-0.001244649771329447</v>
       </c>
       <c r="E20">
-        <v>-0.05570020469425571</v>
+        <v>0.03781937097373608</v>
       </c>
       <c r="F20">
-        <v>0.09386592842657107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01536107852701278</v>
+      </c>
+      <c r="G20">
+        <v>-0.07485615554781509</v>
+      </c>
+      <c r="H20">
+        <v>0.05942768219248826</v>
+      </c>
+      <c r="I20">
+        <v>0.003702577147559465</v>
+      </c>
+      <c r="J20">
+        <v>0.002171891627168183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.002370733353340146</v>
+        <v>0.007909727932608359</v>
       </c>
       <c r="C21">
-        <v>0.0915508474745087</v>
+        <v>-0.08614624593479996</v>
       </c>
       <c r="D21">
-        <v>-0.08590906806047374</v>
+        <v>-0.0007408157353617346</v>
       </c>
       <c r="E21">
-        <v>-0.02469322742265335</v>
+        <v>0.06625783019561272</v>
       </c>
       <c r="F21">
-        <v>-0.007931969615042896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07558137485779577</v>
+      </c>
+      <c r="G21">
+        <v>-0.01410140824801961</v>
+      </c>
+      <c r="H21">
+        <v>0.1537248178914461</v>
+      </c>
+      <c r="I21">
+        <v>-0.06073278170028575</v>
+      </c>
+      <c r="J21">
+        <v>-0.009040328725127807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.0113514391536281</v>
+        <v>-0.01547062900953651</v>
       </c>
       <c r="C22">
-        <v>0.1324403727386894</v>
+        <v>-0.1472655620255486</v>
       </c>
       <c r="D22">
-        <v>-0.2638474423170846</v>
+        <v>0.02757322248840309</v>
       </c>
       <c r="E22">
-        <v>-0.1846204129920436</v>
+        <v>0.401388901667495</v>
       </c>
       <c r="F22">
-        <v>-0.214541696789869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1457988172188009</v>
+      </c>
+      <c r="G22">
+        <v>0.2750812001413411</v>
+      </c>
+      <c r="H22">
+        <v>-0.3558575789425466</v>
+      </c>
+      <c r="I22">
+        <v>-0.09061068731959998</v>
+      </c>
+      <c r="J22">
+        <v>-0.1698411564141121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01187477617064598</v>
+        <v>-0.01174106427320686</v>
       </c>
       <c r="C23">
-        <v>0.1340606839255048</v>
+        <v>-0.1515972475803297</v>
       </c>
       <c r="D23">
-        <v>-0.2623389468807568</v>
+        <v>0.02962603560880255</v>
       </c>
       <c r="E23">
-        <v>-0.1825744706409305</v>
+        <v>0.3918130871741344</v>
       </c>
       <c r="F23">
-        <v>-0.2139669444599304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1387549850860832</v>
+      </c>
+      <c r="G23">
+        <v>0.265745876812824</v>
+      </c>
+      <c r="H23">
+        <v>-0.332518005111296</v>
+      </c>
+      <c r="I23">
+        <v>-0.09331965554188426</v>
+      </c>
+      <c r="J23">
+        <v>-0.158450678777158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001936816544118324</v>
+        <v>0.01198113242320453</v>
       </c>
       <c r="C24">
-        <v>0.07658466492536513</v>
+        <v>-0.07763772360190782</v>
       </c>
       <c r="D24">
-        <v>-0.007519390979263265</v>
+        <v>-0.024747340739863</v>
       </c>
       <c r="E24">
-        <v>-0.04567352456420079</v>
+        <v>0.02069331101157043</v>
       </c>
       <c r="F24">
-        <v>0.05915581205687745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001396672140452729</v>
+      </c>
+      <c r="G24">
+        <v>-0.03800012541431294</v>
+      </c>
+      <c r="H24">
+        <v>0.04079923356160069</v>
+      </c>
+      <c r="I24">
+        <v>-0.0111197346568495</v>
+      </c>
+      <c r="J24">
+        <v>-0.01111259370366622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0100211102959159</v>
+        <v>0.01835497949531376</v>
       </c>
       <c r="C25">
-        <v>0.07181459298854205</v>
+        <v>-0.07546677933376905</v>
       </c>
       <c r="D25">
-        <v>-0.01235618632539222</v>
+        <v>-0.01523322534357503</v>
       </c>
       <c r="E25">
-        <v>-0.02019463389704584</v>
+        <v>0.01507274121866716</v>
       </c>
       <c r="F25">
-        <v>0.05773622413929502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.005570299032799326</v>
+      </c>
+      <c r="G25">
+        <v>-0.03132249986425338</v>
+      </c>
+      <c r="H25">
+        <v>0.02886008747621329</v>
+      </c>
+      <c r="I25">
+        <v>-0.03109713573688266</v>
+      </c>
+      <c r="J25">
+        <v>-0.02400577953716211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.004899232115499735</v>
+        <v>0.01732444160218993</v>
       </c>
       <c r="C26">
-        <v>0.0533631451400194</v>
+        <v>-0.06392465433328054</v>
       </c>
       <c r="D26">
-        <v>-0.01775150899154813</v>
+        <v>-0.04272880344885781</v>
       </c>
       <c r="E26">
-        <v>-0.05462377908215563</v>
+        <v>0.02883962177542877</v>
       </c>
       <c r="F26">
-        <v>0.02597908309511397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008489721314381757</v>
+      </c>
+      <c r="G26">
+        <v>-0.03251589138771533</v>
+      </c>
+      <c r="H26">
+        <v>0.1179585022601851</v>
+      </c>
+      <c r="I26">
+        <v>0.00840760316503014</v>
+      </c>
+      <c r="J26">
+        <v>0.07355789801505541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3433145241494682</v>
+        <v>0.3192124188413408</v>
       </c>
       <c r="C28">
-        <v>-0.1057782306007277</v>
+        <v>0.1071631690883668</v>
       </c>
       <c r="D28">
-        <v>-0.02076661213864414</v>
+        <v>0.01882931414016908</v>
       </c>
       <c r="E28">
-        <v>0.04748208678825487</v>
+        <v>0.01596078541353093</v>
       </c>
       <c r="F28">
-        <v>-0.02389481866349767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04216920718280542</v>
+      </c>
+      <c r="G28">
+        <v>0.08250792839662874</v>
+      </c>
+      <c r="H28">
+        <v>0.08682731166507356</v>
+      </c>
+      <c r="I28">
+        <v>-0.1262261275193942</v>
+      </c>
+      <c r="J28">
+        <v>0.1015062893503611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0008862568808661104</v>
+        <v>0.006289211619761425</v>
       </c>
       <c r="C29">
-        <v>0.05977131495050492</v>
+        <v>-0.08101667412509211</v>
       </c>
       <c r="D29">
-        <v>-0.05228969850750954</v>
+        <v>-0.02015173621345686</v>
       </c>
       <c r="E29">
-        <v>-0.09140611071334535</v>
+        <v>0.1252291406601372</v>
       </c>
       <c r="F29">
-        <v>0.07223936388548705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0526722417814365</v>
+      </c>
+      <c r="G29">
+        <v>-0.1583499239223318</v>
+      </c>
+      <c r="H29">
+        <v>0.2510351143995497</v>
+      </c>
+      <c r="I29">
+        <v>-0.02563239450429558</v>
+      </c>
+      <c r="J29">
+        <v>-0.2428767443784871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01835338372436167</v>
+        <v>0.01932765396825921</v>
       </c>
       <c r="C30">
-        <v>0.1751715293809351</v>
+        <v>-0.1571244980572934</v>
       </c>
       <c r="D30">
-        <v>-0.04186912273581202</v>
+        <v>-0.03314911412234477</v>
       </c>
       <c r="E30">
-        <v>-0.09278482192672489</v>
+        <v>0.07089569840089803</v>
       </c>
       <c r="F30">
-        <v>0.002023466801459158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01898192639217906</v>
+      </c>
+      <c r="G30">
+        <v>0.01199962497472619</v>
+      </c>
+      <c r="H30">
+        <v>0.03366178163491673</v>
+      </c>
+      <c r="I30">
+        <v>0.04251397537319775</v>
+      </c>
+      <c r="J30">
+        <v>0.07503913896622337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.006151519079595128</v>
+        <v>0.007185941226301236</v>
       </c>
       <c r="C31">
-        <v>0.09843044982334927</v>
+        <v>-0.09799974865043103</v>
       </c>
       <c r="D31">
-        <v>0.03771161943508935</v>
+        <v>-0.03038402126580865</v>
       </c>
       <c r="E31">
-        <v>0.007200995985675624</v>
+        <v>-0.01689960901359145</v>
       </c>
       <c r="F31">
-        <v>-0.0293016457496313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002496730110424268</v>
+      </c>
+      <c r="G31">
+        <v>0.03054751232934837</v>
+      </c>
+      <c r="H31">
+        <v>0.05013563164353009</v>
+      </c>
+      <c r="I31">
+        <v>-0.04419599769971088</v>
+      </c>
+      <c r="J31">
+        <v>-0.03474887002381247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03276308842664613</v>
+        <v>0.02512106917297813</v>
       </c>
       <c r="C32">
-        <v>0.07569163874894914</v>
+        <v>-0.06765933713441549</v>
       </c>
       <c r="D32">
-        <v>-0.1051300772540154</v>
+        <v>0.004904495187069239</v>
       </c>
       <c r="E32">
-        <v>-0.101803330812244</v>
+        <v>0.1295731839103196</v>
       </c>
       <c r="F32">
-        <v>0.006382565044397395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03847177865516576</v>
+      </c>
+      <c r="G32">
+        <v>-0.01689969203463906</v>
+      </c>
+      <c r="H32">
+        <v>0.1090065814953505</v>
+      </c>
+      <c r="I32">
+        <v>-0.2142284450218957</v>
+      </c>
+      <c r="J32">
+        <v>0.1266550028883708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.004392371817308728</v>
+        <v>0.01087365781534255</v>
       </c>
       <c r="C33">
-        <v>0.09267501078704191</v>
+        <v>-0.1108645139853761</v>
       </c>
       <c r="D33">
-        <v>-0.01672941065446153</v>
+        <v>-0.01736262206784935</v>
       </c>
       <c r="E33">
-        <v>-0.06323673618286417</v>
+        <v>0.04779291599298965</v>
       </c>
       <c r="F33">
-        <v>0.03318938967501039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.001328058470748695</v>
+      </c>
+      <c r="G33">
+        <v>-0.03722928543415021</v>
+      </c>
+      <c r="H33">
+        <v>0.0534138591517486</v>
+      </c>
+      <c r="I33">
+        <v>-0.02414487692156849</v>
+      </c>
+      <c r="J33">
+        <v>-0.009362296371682025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001690588810524929</v>
+        <v>0.01306784981369239</v>
       </c>
       <c r="C34">
-        <v>0.05776115710765843</v>
+        <v>-0.05606695599879667</v>
       </c>
       <c r="D34">
-        <v>-0.003869203633082847</v>
+        <v>-0.01397334538760826</v>
       </c>
       <c r="E34">
-        <v>-0.02139776549207432</v>
+        <v>0.007162524728135312</v>
       </c>
       <c r="F34">
-        <v>0.04369111487569231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.00926787363454934</v>
+      </c>
+      <c r="G34">
+        <v>-0.02755638695366854</v>
+      </c>
+      <c r="H34">
+        <v>0.002511665589143539</v>
+      </c>
+      <c r="I34">
+        <v>-0.03065023847582941</v>
+      </c>
+      <c r="J34">
+        <v>-0.004149055669268138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001980831582408245</v>
+        <v>0.006773401889432657</v>
       </c>
       <c r="C35">
-        <v>0.01003140206162013</v>
+        <v>-0.03687416193279121</v>
       </c>
       <c r="D35">
-        <v>-0.00863444920078411</v>
+        <v>-0.005686011701807286</v>
       </c>
       <c r="E35">
-        <v>-0.0123820241218903</v>
+        <v>0.04138391846829274</v>
       </c>
       <c r="F35">
-        <v>0.01606280899121813</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01096817111439614</v>
+      </c>
+      <c r="G35">
+        <v>-0.06614218257859515</v>
+      </c>
+      <c r="H35">
+        <v>0.1205809070806984</v>
+      </c>
+      <c r="I35">
+        <v>-0.05818970393512764</v>
+      </c>
+      <c r="J35">
+        <v>-0.1619054667140303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.001828231027456544</v>
+        <v>0.008889565887428773</v>
       </c>
       <c r="C36">
-        <v>0.04494860793304246</v>
+        <v>-0.04989655843330291</v>
       </c>
       <c r="D36">
-        <v>-0.01480450233474127</v>
+        <v>-0.03069636459272346</v>
       </c>
       <c r="E36">
-        <v>-0.06562875438045002</v>
+        <v>0.04060109859174624</v>
       </c>
       <c r="F36">
-        <v>0.02239360776137991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.003876557000015576</v>
+      </c>
+      <c r="G36">
+        <v>-0.02672889393891417</v>
+      </c>
+      <c r="H36">
+        <v>0.06762734496026214</v>
+      </c>
+      <c r="I36">
+        <v>-0.003876778988412832</v>
+      </c>
+      <c r="J36">
+        <v>0.02596308714996176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01527887239004291</v>
+        <v>0.009557232391302116</v>
       </c>
       <c r="C38">
-        <v>0.04841181646110116</v>
+        <v>-0.06470187139408436</v>
       </c>
       <c r="D38">
-        <v>-0.02122652757161416</v>
+        <v>-0.01994620963544712</v>
       </c>
       <c r="E38">
-        <v>-0.05875322383932539</v>
+        <v>0.04591792538206856</v>
       </c>
       <c r="F38">
-        <v>0.00140907644935899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04329535059872835</v>
+      </c>
+      <c r="G38">
+        <v>-0.01869232200256313</v>
+      </c>
+      <c r="H38">
+        <v>0.05460465011114198</v>
+      </c>
+      <c r="I38">
+        <v>-0.03857960806604507</v>
+      </c>
+      <c r="J38">
+        <v>-0.03266847656072451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001333769518506217</v>
+        <v>0.008586420161973696</v>
       </c>
       <c r="C39">
-        <v>0.1350803139419309</v>
+        <v>-0.1328441268083145</v>
       </c>
       <c r="D39">
-        <v>-0.03255621241598848</v>
+        <v>-0.03554191900058488</v>
       </c>
       <c r="E39">
-        <v>-0.0617878975236707</v>
+        <v>0.03171069361442608</v>
       </c>
       <c r="F39">
-        <v>0.07502068733285988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01731844588376347</v>
+      </c>
+      <c r="G39">
+        <v>-0.05874143543566421</v>
+      </c>
+      <c r="H39">
+        <v>0.03641451262681989</v>
+      </c>
+      <c r="I39">
+        <v>0.02466827104537571</v>
+      </c>
+      <c r="J39">
+        <v>-0.006587572799683666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.005943602771852385</v>
+        <v>0.00871009088966071</v>
       </c>
       <c r="C40">
-        <v>0.0299433150405743</v>
+        <v>-0.0605729277824708</v>
       </c>
       <c r="D40">
-        <v>-0.04555363029810367</v>
+        <v>-0.01692661044225749</v>
       </c>
       <c r="E40">
-        <v>-0.1225050352717128</v>
+        <v>0.1250765993758261</v>
       </c>
       <c r="F40">
-        <v>0.02141847757203229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02782820925758476</v>
+      </c>
+      <c r="G40">
+        <v>-0.1102981395615729</v>
+      </c>
+      <c r="H40">
+        <v>-0.02213703544566522</v>
+      </c>
+      <c r="I40">
+        <v>-0.1169015524031699</v>
+      </c>
+      <c r="J40">
+        <v>-0.1734101008094314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.006817640595752242</v>
+        <v>0.01859559439450128</v>
       </c>
       <c r="C41">
-        <v>0.02114747373976306</v>
+        <v>-0.04890375832737065</v>
       </c>
       <c r="D41">
-        <v>0.002153963326031042</v>
+        <v>-0.008244373944508748</v>
       </c>
       <c r="E41">
-        <v>0.01232029605118979</v>
+        <v>-0.003122542837355312</v>
       </c>
       <c r="F41">
-        <v>-0.01025299524971263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006572917692859804</v>
+      </c>
+      <c r="G41">
+        <v>-0.0132120365538203</v>
+      </c>
+      <c r="H41">
+        <v>0.02840352104963887</v>
+      </c>
+      <c r="I41">
+        <v>-0.0583894062158611</v>
+      </c>
+      <c r="J41">
+        <v>-0.0482419217819098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.001003239304868238</v>
+        <v>0.01172947802598272</v>
       </c>
       <c r="C43">
-        <v>0.0157452920922489</v>
+        <v>-0.04243995678851874</v>
       </c>
       <c r="D43">
-        <v>-0.01347344598379365</v>
+        <v>-0.01635516358898026</v>
       </c>
       <c r="E43">
-        <v>-0.03065922187126768</v>
+        <v>0.01998397845581956</v>
       </c>
       <c r="F43">
-        <v>0.02797864344156387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01183593056177801</v>
+      </c>
+      <c r="G43">
+        <v>-0.02918362363156219</v>
+      </c>
+      <c r="H43">
+        <v>0.04272351817930334</v>
+      </c>
+      <c r="I43">
+        <v>-0.02388104624529164</v>
+      </c>
+      <c r="J43">
+        <v>-0.04323299531677626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01699726916353983</v>
+        <v>0.005806166217479599</v>
       </c>
       <c r="C44">
-        <v>0.07691457711303643</v>
+        <v>-0.08624789867769971</v>
       </c>
       <c r="D44">
-        <v>-0.06767913925646918</v>
+        <v>-0.03319445215347305</v>
       </c>
       <c r="E44">
-        <v>-0.099244876007062</v>
+        <v>0.09741115965765436</v>
       </c>
       <c r="F44">
-        <v>0.02120014483253209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.008520913150750325</v>
+      </c>
+      <c r="G44">
+        <v>-0.02273413064111508</v>
+      </c>
+      <c r="H44">
+        <v>0.03163753914876408</v>
+      </c>
+      <c r="I44">
+        <v>0.05549817254299692</v>
+      </c>
+      <c r="J44">
+        <v>0.02631585900074572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.005952239430766434</v>
+        <v>-0.0006487395015663037</v>
       </c>
       <c r="C46">
-        <v>0.0620132024362899</v>
+        <v>-0.06681539489858325</v>
       </c>
       <c r="D46">
-        <v>-0.0369514377166953</v>
+        <v>-0.01393938264914136</v>
       </c>
       <c r="E46">
-        <v>-0.05279691165504505</v>
+        <v>0.04394997259761506</v>
       </c>
       <c r="F46">
-        <v>0.05089441146586402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.004674508396395209</v>
+      </c>
+      <c r="G46">
+        <v>-0.06357808121841847</v>
+      </c>
+      <c r="H46">
+        <v>0.1083922555341239</v>
+      </c>
+      <c r="I46">
+        <v>-0.02167663287013199</v>
+      </c>
+      <c r="J46">
+        <v>-0.09467923778300033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.01781704147992894</v>
+        <v>0.02431369831748269</v>
       </c>
       <c r="C47">
-        <v>0.1094959951398274</v>
+        <v>-0.0965082449332285</v>
       </c>
       <c r="D47">
-        <v>0.03058821278485988</v>
+        <v>-0.02834895247721606</v>
       </c>
       <c r="E47">
-        <v>0.03191081599800853</v>
+        <v>-0.0179205984172</v>
       </c>
       <c r="F47">
-        <v>-0.03204250071280616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0005940749054194907</v>
+      </c>
+      <c r="G47">
+        <v>0.004150188300476814</v>
+      </c>
+      <c r="H47">
+        <v>0.07923599772717432</v>
+      </c>
+      <c r="I47">
+        <v>-0.02141886536500648</v>
+      </c>
+      <c r="J47">
+        <v>-0.02351549013650552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.00956690749652268</v>
+        <v>0.01534436575041035</v>
       </c>
       <c r="C48">
-        <v>0.05063402988051381</v>
+        <v>-0.05736352810623749</v>
       </c>
       <c r="D48">
-        <v>0.006128387948647284</v>
+        <v>-0.04109129466646615</v>
       </c>
       <c r="E48">
-        <v>-0.06811991838982831</v>
+        <v>0.03354869455598208</v>
       </c>
       <c r="F48">
-        <v>0.03226528116180938</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.001428200429348667</v>
+      </c>
+      <c r="G48">
+        <v>-0.03194612297038587</v>
+      </c>
+      <c r="H48">
+        <v>0.110310531149958</v>
+      </c>
+      <c r="I48">
+        <v>0.003044925583726355</v>
+      </c>
+      <c r="J48">
+        <v>0.06802130778934458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006773756195640501</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0148367262347093</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.003094172548181086</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02189362275935445</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.000856356319735601</v>
+      </c>
+      <c r="G49">
+        <v>-0.0160534374728687</v>
+      </c>
+      <c r="H49">
+        <v>-0.01187701442037135</v>
+      </c>
+      <c r="I49">
+        <v>0.03648225909814291</v>
+      </c>
+      <c r="J49">
+        <v>0.001237635379721329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.008855874652606458</v>
+        <v>0.01370661192833635</v>
       </c>
       <c r="C50">
-        <v>0.09239927423747593</v>
+        <v>-0.08979768497023341</v>
       </c>
       <c r="D50">
-        <v>0.01794894794076088</v>
+        <v>-0.01427236826151049</v>
       </c>
       <c r="E50">
-        <v>0.005832478852869767</v>
+        <v>-0.006507810678743475</v>
       </c>
       <c r="F50">
-        <v>-0.03369998440775181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01112897796409237</v>
+      </c>
+      <c r="G50">
+        <v>0.02360891103732629</v>
+      </c>
+      <c r="H50">
+        <v>0.0627068847344963</v>
+      </c>
+      <c r="I50">
+        <v>-0.0674288153076992</v>
+      </c>
+      <c r="J50">
+        <v>-0.009316738479381567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.002800473835436362</v>
+        <v>-0.005941858983565478</v>
       </c>
       <c r="C51">
-        <v>0.05663326026972686</v>
+        <v>-0.0397287498688851</v>
       </c>
       <c r="D51">
-        <v>-0.06691060069247888</v>
+        <v>-0.009574619909183362</v>
       </c>
       <c r="E51">
-        <v>-0.07050019857277993</v>
+        <v>0.05074863433980833</v>
       </c>
       <c r="F51">
-        <v>0.020292234401965</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.007847706320376506</v>
+      </c>
+      <c r="G51">
+        <v>-0.02888785970052552</v>
+      </c>
+      <c r="H51">
+        <v>0.08683789043706705</v>
+      </c>
+      <c r="I51">
+        <v>0.05562449865168715</v>
+      </c>
+      <c r="J51">
+        <v>0.1006691403671303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.04052199239031644</v>
+        <v>0.05144393120010789</v>
       </c>
       <c r="C53">
-        <v>0.16235790303672</v>
+        <v>-0.1472315223052291</v>
       </c>
       <c r="D53">
-        <v>0.07180248222187519</v>
+        <v>-0.04685040849303911</v>
       </c>
       <c r="E53">
-        <v>0.04573207421041159</v>
+        <v>-0.08980656706040956</v>
       </c>
       <c r="F53">
-        <v>0.004974204202332474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.003162758112816185</v>
+      </c>
+      <c r="G53">
+        <v>0.04995995386348043</v>
+      </c>
+      <c r="H53">
+        <v>0.00832563354446097</v>
+      </c>
+      <c r="I53">
+        <v>-0.06818172454080271</v>
+      </c>
+      <c r="J53">
+        <v>0.01209237131473374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.002995971217864581</v>
+        <v>0.01196779150500379</v>
       </c>
       <c r="C54">
-        <v>0.05821285743208709</v>
+        <v>-0.07143755110016088</v>
       </c>
       <c r="D54">
-        <v>-0.04419037871889346</v>
+        <v>0.007983438554176211</v>
       </c>
       <c r="E54">
-        <v>-0.02016528920565796</v>
+        <v>0.02364675786987406</v>
       </c>
       <c r="F54">
-        <v>0.02444267425919466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001110389612430328</v>
+      </c>
+      <c r="G54">
+        <v>-0.0319472754399908</v>
+      </c>
+      <c r="H54">
+        <v>0.07913529484676063</v>
+      </c>
+      <c r="I54">
+        <v>-0.007811240428429243</v>
+      </c>
+      <c r="J54">
+        <v>-0.03454662594750576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02608253125633112</v>
+        <v>0.02858196016418334</v>
       </c>
       <c r="C55">
-        <v>0.1243567330254561</v>
+        <v>-0.1072719958911178</v>
       </c>
       <c r="D55">
-        <v>0.06556921281481912</v>
+        <v>-0.04787226848659338</v>
       </c>
       <c r="E55">
-        <v>0.01320389470600418</v>
+        <v>-0.06867435567357998</v>
       </c>
       <c r="F55">
-        <v>-0.008067669330178653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01229292010470171</v>
+      </c>
+      <c r="G55">
+        <v>0.02254438484279278</v>
+      </c>
+      <c r="H55">
+        <v>0.01917607054764724</v>
+      </c>
+      <c r="I55">
+        <v>-0.01736005898025394</v>
+      </c>
+      <c r="J55">
+        <v>0.007727424613296584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04630123520185814</v>
+        <v>0.04558275301885731</v>
       </c>
       <c r="C56">
-        <v>0.1953721226562513</v>
+        <v>-0.1764706297004956</v>
       </c>
       <c r="D56">
-        <v>0.09612385156081105</v>
+        <v>-0.06780396794513016</v>
       </c>
       <c r="E56">
-        <v>0.0814974695178067</v>
+        <v>-0.1309873448649961</v>
       </c>
       <c r="F56">
-        <v>-0.04608897509894234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.006020665530380409</v>
+      </c>
+      <c r="G56">
+        <v>0.1063517114795295</v>
+      </c>
+      <c r="H56">
+        <v>0.005732393690874402</v>
+      </c>
+      <c r="I56">
+        <v>-0.02753517021722119</v>
+      </c>
+      <c r="J56">
+        <v>0.04263977652038771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.009172378840369581</v>
+        <v>0.008132869773127627</v>
       </c>
       <c r="C58">
-        <v>0.185125865743007</v>
+        <v>-0.1704735474007031</v>
       </c>
       <c r="D58">
-        <v>-0.2548848522351208</v>
+        <v>0.02269398487181703</v>
       </c>
       <c r="E58">
-        <v>-0.1509690512879973</v>
+        <v>0.2787091046369318</v>
       </c>
       <c r="F58">
-        <v>-0.1043803850936384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07126816554450448</v>
+      </c>
+      <c r="G58">
+        <v>0.1773097393742538</v>
+      </c>
+      <c r="H58">
+        <v>0.03933606253160968</v>
+      </c>
+      <c r="I58">
+        <v>0.1738727146138599</v>
+      </c>
+      <c r="J58">
+        <v>0.3388405189004874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2647461928237309</v>
+        <v>0.2792435212765266</v>
       </c>
       <c r="C59">
-        <v>-0.01864468065434633</v>
+        <v>0.03589511746332329</v>
       </c>
       <c r="D59">
-        <v>-0.06169044334998288</v>
+        <v>0.005929146100799657</v>
       </c>
       <c r="E59">
-        <v>-0.01732138980546755</v>
+        <v>0.0530190716820657</v>
       </c>
       <c r="F59">
-        <v>-0.0272937456728455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01882407461145709</v>
+      </c>
+      <c r="G59">
+        <v>0.02084156599622174</v>
+      </c>
+      <c r="H59">
+        <v>-0.02236175963237323</v>
+      </c>
+      <c r="I59">
+        <v>-0.07224687210326058</v>
+      </c>
+      <c r="J59">
+        <v>0.0299939168402472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1206716203010811</v>
+        <v>0.1476373875744121</v>
       </c>
       <c r="C60">
-        <v>0.1505343705680539</v>
+        <v>-0.1607140410756911</v>
       </c>
       <c r="D60">
-        <v>0.0562337322501917</v>
+        <v>-0.03895707913259885</v>
       </c>
       <c r="E60">
-        <v>-0.01804437463551567</v>
+        <v>-0.03633608413872981</v>
       </c>
       <c r="F60">
-        <v>0.2271900327258271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08888222752594833</v>
+      </c>
+      <c r="G60">
+        <v>-0.2244008861726263</v>
+      </c>
+      <c r="H60">
+        <v>-0.2828380711559646</v>
+      </c>
+      <c r="I60">
+        <v>0.07483074312589737</v>
+      </c>
+      <c r="J60">
+        <v>-0.02504586778740807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.004617621221399107</v>
+        <v>0.01492210449486221</v>
       </c>
       <c r="C61">
-        <v>0.09618934705324098</v>
+        <v>-0.1064418072204406</v>
       </c>
       <c r="D61">
-        <v>0.002779239872516683</v>
+        <v>-0.03284223170763267</v>
       </c>
       <c r="E61">
-        <v>-0.03637993889669911</v>
+        <v>0.007019545659115662</v>
       </c>
       <c r="F61">
-        <v>0.07529418295821536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.007251319718726223</v>
+      </c>
+      <c r="G61">
+        <v>-0.05825831029234665</v>
+      </c>
+      <c r="H61">
+        <v>0.0431198361004289</v>
+      </c>
+      <c r="I61">
+        <v>-0.009837148476978178</v>
+      </c>
+      <c r="J61">
+        <v>-0.03346617745468961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006982191846585519</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.005709995766091797</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004333876221035853</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01596788261765597</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.001314843060211506</v>
+      </c>
+      <c r="G62">
+        <v>-0.01746209958389594</v>
+      </c>
+      <c r="H62">
+        <v>0.0111472021025814</v>
+      </c>
+      <c r="I62">
+        <v>0.002069142643845352</v>
+      </c>
+      <c r="J62">
+        <v>-0.01146417033937205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.007081735978386517</v>
+        <v>0.01670462920847349</v>
       </c>
       <c r="C63">
-        <v>0.06147650412390994</v>
+        <v>-0.07572377578808208</v>
       </c>
       <c r="D63">
-        <v>-0.01620763733943024</v>
+        <v>-0.03509400658884875</v>
       </c>
       <c r="E63">
-        <v>-0.03246970717732145</v>
+        <v>0.02637495331127017</v>
       </c>
       <c r="F63">
-        <v>0.04815452119783222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006062967328878435</v>
+      </c>
+      <c r="G63">
+        <v>-0.04092398612686871</v>
+      </c>
+      <c r="H63">
+        <v>0.05798129147852397</v>
+      </c>
+      <c r="I63">
+        <v>-0.02973042901946827</v>
+      </c>
+      <c r="J63">
+        <v>-0.01659961071726654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.008273323118587425</v>
+        <v>0.01450221654062692</v>
       </c>
       <c r="C64">
-        <v>0.1266536985050477</v>
+        <v>-0.1052040879942792</v>
       </c>
       <c r="D64">
-        <v>0.05590140205725268</v>
+        <v>-0.0295956400030994</v>
       </c>
       <c r="E64">
-        <v>-0.02101812351121752</v>
+        <v>0.003782663714116162</v>
       </c>
       <c r="F64">
-        <v>0.04076843007336177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02799205439197435</v>
+      </c>
+      <c r="G64">
+        <v>-0.01967255710370003</v>
+      </c>
+      <c r="H64">
+        <v>0.006458488729584146</v>
+      </c>
+      <c r="I64">
+        <v>-0.01891158361627131</v>
+      </c>
+      <c r="J64">
+        <v>-0.04582647839535345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01431328731025446</v>
+        <v>0.02441853503547394</v>
       </c>
       <c r="C65">
-        <v>0.0680193232281205</v>
+        <v>-0.08781046763151855</v>
       </c>
       <c r="D65">
-        <v>-0.05179924998747151</v>
+        <v>0.004328083331325886</v>
       </c>
       <c r="E65">
-        <v>-0.05866560933998535</v>
+        <v>0.07411270408575824</v>
       </c>
       <c r="F65">
-        <v>0.05935342087009294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.008971604718812734</v>
+      </c>
+      <c r="G65">
+        <v>-0.1037038894282936</v>
+      </c>
+      <c r="H65">
+        <v>-0.02477642837603998</v>
+      </c>
+      <c r="I65">
+        <v>0.08145335788328747</v>
+      </c>
+      <c r="J65">
+        <v>-0.002229305514533008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002783436617152769</v>
+        <v>0.006189939883250136</v>
       </c>
       <c r="C66">
-        <v>0.157147648521609</v>
+        <v>-0.1613829264606371</v>
       </c>
       <c r="D66">
-        <v>-0.06764035966971696</v>
+        <v>-0.01747765940143746</v>
       </c>
       <c r="E66">
-        <v>-0.07723489187027849</v>
+        <v>0.05287903953037045</v>
       </c>
       <c r="F66">
-        <v>0.06404341012946825</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.009841143179090442</v>
+      </c>
+      <c r="G66">
+        <v>-0.04125748256169522</v>
+      </c>
+      <c r="H66">
+        <v>0.03993110639734748</v>
+      </c>
+      <c r="I66">
+        <v>0.01876703850462132</v>
+      </c>
+      <c r="J66">
+        <v>-9.203059684381967e-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.02152617098455551</v>
+        <v>0.01948084598012783</v>
       </c>
       <c r="C67">
-        <v>0.04379530715371256</v>
+        <v>-0.05874339713488974</v>
       </c>
       <c r="D67">
-        <v>0.02823728399760627</v>
+        <v>-0.02969759618494204</v>
       </c>
       <c r="E67">
-        <v>-0.03265443311157295</v>
+        <v>0.007372434958464806</v>
       </c>
       <c r="F67">
-        <v>0.01260122716003796</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03327018633166774</v>
+      </c>
+      <c r="G67">
+        <v>-0.04173243665079996</v>
+      </c>
+      <c r="H67">
+        <v>0.03052472270225931</v>
+      </c>
+      <c r="I67">
+        <v>-0.03992460812786388</v>
+      </c>
+      <c r="J67">
+        <v>-0.04738416597843467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2602889806065318</v>
+        <v>0.2876558187686726</v>
       </c>
       <c r="C68">
-        <v>-0.03697239174921573</v>
+        <v>0.04210253034558647</v>
       </c>
       <c r="D68">
-        <v>-0.05247280975809841</v>
+        <v>0.02833954721503883</v>
       </c>
       <c r="E68">
-        <v>-0.0225607551918569</v>
+        <v>0.06363310784831019</v>
       </c>
       <c r="F68">
-        <v>-0.05818819378811893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01218223437154777</v>
+      </c>
+      <c r="G68">
+        <v>0.04642821617055353</v>
+      </c>
+      <c r="H68">
+        <v>-0.02265372966850096</v>
+      </c>
+      <c r="I68">
+        <v>-0.05522897320813828</v>
+      </c>
+      <c r="J68">
+        <v>0.008177700137404592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01536381998894143</v>
+        <v>0.009572980564521424</v>
       </c>
       <c r="C69">
-        <v>0.1055688632225383</v>
+        <v>-0.07992881327858441</v>
       </c>
       <c r="D69">
-        <v>0.05647016502406551</v>
+        <v>-0.02554381600921602</v>
       </c>
       <c r="E69">
-        <v>-0.01373886097381783</v>
+        <v>-0.01938822792254234</v>
       </c>
       <c r="F69">
-        <v>-0.02742443267400295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.002688268617622188</v>
+      </c>
+      <c r="G69">
+        <v>-0.007910935908423853</v>
+      </c>
+      <c r="H69">
+        <v>0.05454241569242683</v>
+      </c>
+      <c r="I69">
+        <v>-0.03242552341171145</v>
+      </c>
+      <c r="J69">
+        <v>3.808684632228305e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2798293890311607</v>
+        <v>0.2771508078621479</v>
       </c>
       <c r="C71">
-        <v>-0.0465522854269188</v>
+        <v>0.0643033196696858</v>
       </c>
       <c r="D71">
-        <v>-0.03922407019992757</v>
+        <v>0.01530798072471773</v>
       </c>
       <c r="E71">
-        <v>-0.001672527244754637</v>
+        <v>0.04064276513025353</v>
       </c>
       <c r="F71">
-        <v>0.01729284300078599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0335635384561716</v>
+      </c>
+      <c r="G71">
+        <v>0.006500584902683272</v>
+      </c>
+      <c r="H71">
+        <v>0.05581049216103555</v>
+      </c>
+      <c r="I71">
+        <v>-0.06690584561008169</v>
+      </c>
+      <c r="J71">
+        <v>0.1120128192067192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05458784134270898</v>
+        <v>0.05831827319611264</v>
       </c>
       <c r="C72">
-        <v>0.1869401881075829</v>
+        <v>-0.1591573494049361</v>
       </c>
       <c r="D72">
-        <v>0.03090645643722691</v>
+        <v>-0.01885179829776092</v>
       </c>
       <c r="E72">
-        <v>-0.0564069025977515</v>
+        <v>-0.02455084324900883</v>
       </c>
       <c r="F72">
-        <v>0.09712632274418788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01892861728869277</v>
+      </c>
+      <c r="G72">
+        <v>-0.03725443304015625</v>
+      </c>
+      <c r="H72">
+        <v>-0.05409369675842302</v>
+      </c>
+      <c r="I72">
+        <v>0.0599391478199117</v>
+      </c>
+      <c r="J72">
+        <v>-0.03252730824379893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1035258795733564</v>
+        <v>0.1513182845964475</v>
       </c>
       <c r="C73">
-        <v>0.1556374719090682</v>
+        <v>-0.1975463057752098</v>
       </c>
       <c r="D73">
-        <v>0.09478028577550691</v>
+        <v>-0.05753592439599854</v>
       </c>
       <c r="E73">
-        <v>-0.01158776822711941</v>
+        <v>-0.09491876809319158</v>
       </c>
       <c r="F73">
-        <v>0.3277031227391002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1037193746288064</v>
+      </c>
+      <c r="G73">
+        <v>-0.3808081333073616</v>
+      </c>
+      <c r="H73">
+        <v>-0.3402300087205777</v>
+      </c>
+      <c r="I73">
+        <v>0.02563242038533648</v>
+      </c>
+      <c r="J73">
+        <v>0.11756763780931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02710240682563632</v>
+        <v>0.03576905187464112</v>
       </c>
       <c r="C74">
-        <v>0.1189912946898206</v>
+        <v>-0.1159155483742767</v>
       </c>
       <c r="D74">
-        <v>0.101920313912285</v>
+        <v>-0.04475283157395736</v>
       </c>
       <c r="E74">
-        <v>0.04846919453092934</v>
+        <v>-0.08310532056646304</v>
       </c>
       <c r="F74">
-        <v>-0.01427139290465122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.005099971796591714</v>
+      </c>
+      <c r="G74">
+        <v>0.02843358443986603</v>
+      </c>
+      <c r="H74">
+        <v>0.013438440119922</v>
+      </c>
+      <c r="I74">
+        <v>-0.01983458706452916</v>
+      </c>
+      <c r="J74">
+        <v>0.007218489598687435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09475453014502018</v>
+        <v>0.06856970844846262</v>
       </c>
       <c r="C75">
-        <v>0.2126839543208923</v>
+        <v>-0.1951916107847674</v>
       </c>
       <c r="D75">
-        <v>0.2133249296535841</v>
+        <v>-0.0848704037703336</v>
       </c>
       <c r="E75">
-        <v>0.1534640786846286</v>
+        <v>-0.2293915332565681</v>
       </c>
       <c r="F75">
-        <v>-0.07187637948808122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08715355909495713</v>
+      </c>
+      <c r="G75">
+        <v>0.1473989833381872</v>
+      </c>
+      <c r="H75">
+        <v>-0.02276801121305141</v>
+      </c>
+      <c r="I75">
+        <v>-0.1053005404482142</v>
+      </c>
+      <c r="J75">
+        <v>-0.01119927359980619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04002096032022434</v>
+        <v>0.03922537753513734</v>
       </c>
       <c r="C76">
-        <v>0.1481354684613555</v>
+        <v>-0.1429938589547466</v>
       </c>
       <c r="D76">
-        <v>0.102089599795413</v>
+        <v>-0.07238193509480455</v>
       </c>
       <c r="E76">
-        <v>0.05086931378488086</v>
+        <v>-0.1077001894475538</v>
       </c>
       <c r="F76">
-        <v>-0.001234492826253273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.003170269009662322</v>
+      </c>
+      <c r="G76">
+        <v>0.02975326574472038</v>
+      </c>
+      <c r="H76">
+        <v>0.01133041961865107</v>
+      </c>
+      <c r="I76">
+        <v>-0.03906221248192006</v>
+      </c>
+      <c r="J76">
+        <v>-0.01447101693113873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.0532517006781021</v>
+        <v>0.03623452705346134</v>
       </c>
       <c r="C77">
-        <v>0.1652619615285862</v>
+        <v>-0.2518129347082202</v>
       </c>
       <c r="D77">
-        <v>-0.5981764041385934</v>
+        <v>0.9456835529379817</v>
       </c>
       <c r="E77">
-        <v>0.7018857291295372</v>
+        <v>-0.1497994232161564</v>
       </c>
       <c r="F77">
-        <v>0.1758346826566113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0249049605626166</v>
+      </c>
+      <c r="G77">
+        <v>-0.01289434340172649</v>
+      </c>
+      <c r="H77">
+        <v>0.03609065337419436</v>
+      </c>
+      <c r="I77">
+        <v>0.0004383459744263103</v>
+      </c>
+      <c r="J77">
+        <v>-0.01267011831122635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0270402343195967</v>
+        <v>0.02699099815518854</v>
       </c>
       <c r="C78">
-        <v>0.15756387075139</v>
+        <v>-0.1259008948519835</v>
       </c>
       <c r="D78">
-        <v>-0.05569708974584584</v>
+        <v>-0.06397712272813194</v>
       </c>
       <c r="E78">
-        <v>-0.09886357262546523</v>
+        <v>0.02884979540875192</v>
       </c>
       <c r="F78">
-        <v>-0.1307589335299233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02424254839694414</v>
+      </c>
+      <c r="G78">
+        <v>0.07245942545149128</v>
+      </c>
+      <c r="H78">
+        <v>0.145265381223439</v>
+      </c>
+      <c r="I78">
+        <v>0.3649128462467023</v>
+      </c>
+      <c r="J78">
+        <v>0.3597858433529639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05639602336077946</v>
+        <v>0.05816144307480795</v>
       </c>
       <c r="C79">
-        <v>0.2453599884565396</v>
+        <v>-0.1853396399062492</v>
       </c>
       <c r="D79">
-        <v>0.1833839257243749</v>
+        <v>-0.06659986262620914</v>
       </c>
       <c r="E79">
-        <v>0.1459521315044013</v>
+        <v>-0.1866635233306072</v>
       </c>
       <c r="F79">
-        <v>-0.1703758844574219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01035560585044321</v>
+      </c>
+      <c r="G79">
+        <v>0.1948736960475174</v>
+      </c>
+      <c r="H79">
+        <v>0.06084924887775371</v>
+      </c>
+      <c r="I79">
+        <v>-0.1019315651198793</v>
+      </c>
+      <c r="J79">
+        <v>0.07917369803978699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.004542115532642389</v>
+        <v>0.01205277801538323</v>
       </c>
       <c r="C80">
-        <v>0.0662823638600664</v>
+        <v>-0.06082367682920423</v>
       </c>
       <c r="D80">
-        <v>0.03698695019563044</v>
+        <v>-0.04720707750151494</v>
       </c>
       <c r="E80">
-        <v>-0.03843722776296173</v>
+        <v>0.03337832636417078</v>
       </c>
       <c r="F80">
-        <v>-0.007018359170970882</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0737420696508249</v>
+      </c>
+      <c r="G80">
+        <v>-0.03116435943640405</v>
+      </c>
+      <c r="H80">
+        <v>-0.05282588785236616</v>
+      </c>
+      <c r="I80">
+        <v>-0.04300243148725728</v>
+      </c>
+      <c r="J80">
+        <v>-0.07769396187167588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.0345751210801027</v>
+        <v>0.02202324942339589</v>
       </c>
       <c r="C81">
-        <v>0.1289515241822098</v>
+        <v>-0.1181221285450596</v>
       </c>
       <c r="D81">
-        <v>0.138440351043785</v>
+        <v>-0.04667831123828066</v>
       </c>
       <c r="E81">
-        <v>0.09896149704666705</v>
+        <v>-0.1068676578591103</v>
       </c>
       <c r="F81">
-        <v>-0.04365410517394592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01349608170100747</v>
+      </c>
+      <c r="G81">
+        <v>0.08644476717416899</v>
+      </c>
+      <c r="H81">
+        <v>0.06810941312121918</v>
+      </c>
+      <c r="I81">
+        <v>-0.09763890933731864</v>
+      </c>
+      <c r="J81">
+        <v>0.001523205123411336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05394345584615981</v>
+        <v>0.0480452823613917</v>
       </c>
       <c r="C82">
-        <v>0.1556485351602779</v>
+        <v>-0.1334833495401439</v>
       </c>
       <c r="D82">
-        <v>0.1416423812089444</v>
+        <v>-0.06968667876365353</v>
       </c>
       <c r="E82">
-        <v>0.07024724031616429</v>
+        <v>-0.1266927336134775</v>
       </c>
       <c r="F82">
-        <v>-0.002244183887675449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002300661263564135</v>
+      </c>
+      <c r="G82">
+        <v>0.05609059867408076</v>
+      </c>
+      <c r="H82">
+        <v>0.03034616759997922</v>
+      </c>
+      <c r="I82">
+        <v>-0.07059710561196075</v>
+      </c>
+      <c r="J82">
+        <v>0.01549354448334335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.006721528466455591</v>
+        <v>0.0029811026267061</v>
       </c>
       <c r="C83">
-        <v>0.05076937268903689</v>
+        <v>-0.01130388851142293</v>
       </c>
       <c r="D83">
-        <v>-0.1229908305582757</v>
+        <v>0.04249907905656207</v>
       </c>
       <c r="E83">
-        <v>0.1385043069522512</v>
+        <v>0.08171363390621104</v>
       </c>
       <c r="F83">
-        <v>-0.5779094589204936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.920814727785195</v>
+      </c>
+      <c r="G83">
+        <v>0.2630080166699153</v>
+      </c>
+      <c r="H83">
+        <v>-0.05091048523241801</v>
+      </c>
+      <c r="I83">
+        <v>-0.08570634469290418</v>
+      </c>
+      <c r="J83">
+        <v>0.01601850548769686</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.001338708810716019</v>
+        <v>-0.001636248287470183</v>
       </c>
       <c r="C84">
-        <v>0.03282751207021346</v>
+        <v>-0.03773939619878648</v>
       </c>
       <c r="D84">
-        <v>-0.02939373104318647</v>
+        <v>-0.0448452586922154</v>
       </c>
       <c r="E84">
-        <v>-0.094633100273953</v>
+        <v>0.073096148201152</v>
       </c>
       <c r="F84">
-        <v>-0.02413955025173278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04765579200295891</v>
+      </c>
+      <c r="G84">
+        <v>0.03963866703310893</v>
+      </c>
+      <c r="H84">
+        <v>0.07444970240526311</v>
+      </c>
+      <c r="I84">
+        <v>0.04106323443950782</v>
+      </c>
+      <c r="J84">
+        <v>-0.09812020294614271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03716593776000268</v>
+        <v>0.03122603990518771</v>
       </c>
       <c r="C85">
-        <v>0.1717279075344231</v>
+        <v>-0.1413429696686113</v>
       </c>
       <c r="D85">
-        <v>0.1527944917116451</v>
+        <v>-0.08077546618735615</v>
       </c>
       <c r="E85">
-        <v>0.1031105606734735</v>
+        <v>-0.1820152055221258</v>
       </c>
       <c r="F85">
-        <v>-0.1254750010876876</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01346079961343101</v>
+      </c>
+      <c r="G85">
+        <v>0.1209949856351983</v>
+      </c>
+      <c r="H85">
+        <v>0.01780168781016482</v>
+      </c>
+      <c r="I85">
+        <v>-0.1039178846109941</v>
+      </c>
+      <c r="J85">
+        <v>0.00950021480029033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03736557337844003</v>
+        <v>0.01903258622283518</v>
       </c>
       <c r="C86">
-        <v>0.04819335414464335</v>
+        <v>-0.07124282143974008</v>
       </c>
       <c r="D86">
-        <v>-0.09473124137030595</v>
+        <v>0.0006249030176504031</v>
       </c>
       <c r="E86">
-        <v>-0.009645952834652475</v>
+        <v>0.06724273371600049</v>
       </c>
       <c r="F86">
-        <v>0.05662166882980658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.05041633690224986</v>
+      </c>
+      <c r="G86">
+        <v>0.06085085900093105</v>
+      </c>
+      <c r="H86">
+        <v>0.08907132465865399</v>
+      </c>
+      <c r="I86">
+        <v>-0.02249386270395408</v>
+      </c>
+      <c r="J86">
+        <v>0.2045847563263203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03403551837956792</v>
+        <v>0.01807885394486641</v>
       </c>
       <c r="C87">
-        <v>0.1277774785363372</v>
+        <v>-0.1234775148388064</v>
       </c>
       <c r="D87">
-        <v>-0.1009677199685316</v>
+        <v>0.0121804632234275</v>
       </c>
       <c r="E87">
-        <v>-0.1071238099292607</v>
+        <v>0.1002504372902035</v>
       </c>
       <c r="F87">
-        <v>-0.005584614932560345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01951750697042057</v>
+      </c>
+      <c r="G87">
+        <v>0.01788915654344262</v>
+      </c>
+      <c r="H87">
+        <v>0.02358057254619372</v>
+      </c>
+      <c r="I87">
+        <v>0.1818503312120608</v>
+      </c>
+      <c r="J87">
+        <v>0.007681285100772641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01930002924316917</v>
+        <v>0.03459529118138284</v>
       </c>
       <c r="C88">
-        <v>0.07537575442275049</v>
+        <v>-0.08200905048504159</v>
       </c>
       <c r="D88">
-        <v>0.06692320395206368</v>
+        <v>-0.03293346621178759</v>
       </c>
       <c r="E88">
-        <v>0.0153747353679317</v>
+        <v>-0.01780759687505753</v>
       </c>
       <c r="F88">
-        <v>0.03528636913536057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.00692792052928735</v>
+      </c>
+      <c r="G88">
+        <v>-0.02537971219104779</v>
+      </c>
+      <c r="H88">
+        <v>-0.007756490277785692</v>
+      </c>
+      <c r="I88">
+        <v>-0.06672149746218339</v>
+      </c>
+      <c r="J88">
+        <v>-0.06434629118433018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4164744311255215</v>
+        <v>0.3952880964291176</v>
       </c>
       <c r="C89">
-        <v>-0.09004777869507027</v>
+        <v>0.1097786674223578</v>
       </c>
       <c r="D89">
-        <v>0.02356437323238241</v>
+        <v>0.0232018935676127</v>
       </c>
       <c r="E89">
-        <v>-0.1963168609164681</v>
+        <v>0.0496188801580278</v>
       </c>
       <c r="F89">
-        <v>-0.1241177431186564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.07835274246126489</v>
+      </c>
+      <c r="G89">
+        <v>0.05750876092918879</v>
+      </c>
+      <c r="H89">
+        <v>0.06854843105407557</v>
+      </c>
+      <c r="I89">
+        <v>0.607948787071929</v>
+      </c>
+      <c r="J89">
+        <v>-0.3461348528557826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3159287151820213</v>
+        <v>0.3204963685767899</v>
       </c>
       <c r="C90">
-        <v>-0.04918154543377697</v>
+        <v>0.06575727196263724</v>
       </c>
       <c r="D90">
-        <v>-0.05823671638098783</v>
+        <v>0.01309664735796891</v>
       </c>
       <c r="E90">
-        <v>0.00445702492857482</v>
+        <v>0.03588876368451801</v>
       </c>
       <c r="F90">
-        <v>-0.006744842594834917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01054081008744164</v>
+      </c>
+      <c r="G90">
+        <v>0.01873172473168329</v>
+      </c>
+      <c r="H90">
+        <v>-0.009876025197765337</v>
+      </c>
+      <c r="I90">
+        <v>-0.1299348800921043</v>
+      </c>
+      <c r="J90">
+        <v>0.05466428636767613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04114691442253789</v>
+        <v>0.05100038481498056</v>
       </c>
       <c r="C91">
-        <v>0.1366512135797016</v>
+        <v>-0.1172064781681088</v>
       </c>
       <c r="D91">
-        <v>0.08748017038371853</v>
+        <v>-0.03814993705035722</v>
       </c>
       <c r="E91">
-        <v>0.0666013157383137</v>
+        <v>-0.09300547880789674</v>
       </c>
       <c r="F91">
-        <v>-0.05501580883568226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.02914931781509968</v>
+      </c>
+      <c r="G91">
+        <v>0.06942051524748645</v>
+      </c>
+      <c r="H91">
+        <v>0.01106395875304317</v>
+      </c>
+      <c r="I91">
+        <v>-0.0433348636483372</v>
+      </c>
+      <c r="J91">
+        <v>-0.02001173716560382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3559017187218966</v>
+        <v>0.3513786872510763</v>
       </c>
       <c r="C92">
-        <v>-0.1053073702368898</v>
+        <v>0.1175192734992828</v>
       </c>
       <c r="D92">
-        <v>-0.05370964222252376</v>
+        <v>0.04029213376242471</v>
       </c>
       <c r="E92">
-        <v>-0.01229733723360877</v>
+        <v>0.0724814333272641</v>
       </c>
       <c r="F92">
-        <v>0.04756245386284588</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09772298153940547</v>
+      </c>
+      <c r="G92">
+        <v>0.01238465979384321</v>
+      </c>
+      <c r="H92">
+        <v>0.05162569205104402</v>
+      </c>
+      <c r="I92">
+        <v>-0.147697818401887</v>
+      </c>
+      <c r="J92">
+        <v>0.04335003505508575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3347628167509361</v>
+        <v>0.3243333646470207</v>
       </c>
       <c r="C93">
-        <v>-0.0856334692712697</v>
+        <v>0.1094872343657251</v>
       </c>
       <c r="D93">
-        <v>0.03004047145393046</v>
+        <v>-0.01267491546153561</v>
       </c>
       <c r="E93">
-        <v>0.01047172182938778</v>
+        <v>-0.003868467546752922</v>
       </c>
       <c r="F93">
-        <v>-0.004457788082932918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01472673882160409</v>
+      </c>
+      <c r="G93">
+        <v>0.03180663023121275</v>
+      </c>
+      <c r="H93">
+        <v>0.03817098186431775</v>
+      </c>
+      <c r="I93">
+        <v>-0.08473910578483948</v>
+      </c>
+      <c r="J93">
+        <v>0.06680081377370371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08895635023999356</v>
+        <v>0.08348402784853423</v>
       </c>
       <c r="C94">
-        <v>0.2261423747506453</v>
+        <v>-0.1988539720888364</v>
       </c>
       <c r="D94">
-        <v>0.2534816337127211</v>
+        <v>-0.1100102703984189</v>
       </c>
       <c r="E94">
-        <v>0.144313749990915</v>
+        <v>-0.3224747625341738</v>
       </c>
       <c r="F94">
-        <v>-0.2202729853555456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.04879122990353978</v>
+      </c>
+      <c r="G94">
+        <v>0.3730561465012926</v>
+      </c>
+      <c r="H94">
+        <v>-0.04317111354743175</v>
+      </c>
+      <c r="I94">
+        <v>0.1910840788256625</v>
+      </c>
+      <c r="J94">
+        <v>-0.2967465205007371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02566294891044587</v>
+        <v>0.03217131302661543</v>
       </c>
       <c r="C95">
-        <v>0.0669811898234897</v>
+        <v>-0.1108847668649909</v>
       </c>
       <c r="D95">
-        <v>0.00218152449635753</v>
+        <v>-0.01935200177164618</v>
       </c>
       <c r="E95">
-        <v>-0.005766068913012021</v>
+        <v>0.008360995864401245</v>
       </c>
       <c r="F95">
-        <v>0.1436475410234957</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01154268495447</v>
+      </c>
+      <c r="G95">
+        <v>-0.1371687147189478</v>
+      </c>
+      <c r="H95">
+        <v>0.02420906528625723</v>
+      </c>
+      <c r="I95">
+        <v>-0.01288947747382306</v>
+      </c>
+      <c r="J95">
+        <v>-0.1946915863823368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.005247887523958179</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.009353238328901637</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02240871363586554</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.01380515164921219</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.009086418196243147</v>
+      </c>
+      <c r="G97">
+        <v>-0.03276168444870729</v>
+      </c>
+      <c r="H97">
+        <v>-0.009515611103240234</v>
+      </c>
+      <c r="I97">
+        <v>-0.006127781269965599</v>
+      </c>
+      <c r="J97">
+        <v>0.01617441316309865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08429387926436353</v>
+        <v>0.1314260049577524</v>
       </c>
       <c r="C98">
-        <v>0.1487987074744123</v>
+        <v>-0.1688670524449215</v>
       </c>
       <c r="D98">
-        <v>0.02965351070353088</v>
+        <v>-0.06562459682907872</v>
       </c>
       <c r="E98">
-        <v>-0.03156794910130301</v>
+        <v>-0.06168991691487185</v>
       </c>
       <c r="F98">
-        <v>0.2479524963202319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0652224881878781</v>
+      </c>
+      <c r="G98">
+        <v>-0.336307085163207</v>
+      </c>
+      <c r="H98">
+        <v>-0.3591471736819818</v>
+      </c>
+      <c r="I98">
+        <v>0.08859587917180144</v>
+      </c>
+      <c r="J98">
+        <v>0.1339160640084619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.00197571927099618</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.008630864750627069</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01794593908955482</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.01271072636651989</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.006873968817003534</v>
+      </c>
+      <c r="G99">
+        <v>-0.005204110986608467</v>
+      </c>
+      <c r="H99">
+        <v>0.0442675448206928</v>
+      </c>
+      <c r="I99">
+        <v>0.0125105802818972</v>
+      </c>
+      <c r="J99">
+        <v>0.007052223974526419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0002527567131912532</v>
+        <v>0.006756656098943579</v>
       </c>
       <c r="C101">
-        <v>0.05786599733888765</v>
+        <v>-0.07935411500673066</v>
       </c>
       <c r="D101">
-        <v>-0.0514885501657058</v>
+        <v>-0.01877465137237832</v>
       </c>
       <c r="E101">
-        <v>-0.09000240532206885</v>
+        <v>0.1246853078180758</v>
       </c>
       <c r="F101">
-        <v>0.07160237984257281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.05240130889024517</v>
+      </c>
+      <c r="G101">
+        <v>-0.1574648200525543</v>
+      </c>
+      <c r="H101">
+        <v>0.2491698575786168</v>
+      </c>
+      <c r="I101">
+        <v>-0.02565434770806012</v>
+      </c>
+      <c r="J101">
+        <v>-0.2406217585655158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01928857617976704</v>
+        <v>0.00776530366846869</v>
       </c>
       <c r="C102">
-        <v>0.08414474373792086</v>
+        <v>-0.040514471070086</v>
       </c>
       <c r="D102">
-        <v>0.06017148812086023</v>
+        <v>-0.01694599316679306</v>
       </c>
       <c r="E102">
-        <v>0.04052504479754647</v>
+        <v>-0.04686904556346711</v>
       </c>
       <c r="F102">
-        <v>-0.042365869890582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01098369564911003</v>
+      </c>
+      <c r="G102">
+        <v>0.04219220112970434</v>
+      </c>
+      <c r="H102">
+        <v>0.01420670409256614</v>
+      </c>
+      <c r="I102">
+        <v>-0.0002561307671840512</v>
+      </c>
+      <c r="J102">
+        <v>-0.002923153448914495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
